--- a/dal, subji, kadhi/Dal/Roasted Moong dal.xlsx
+++ b/dal, subji, kadhi/Dal/Roasted Moong dal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19565D-7E05-40E8-910E-424E516030E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F43E00D-4BAE-4F68-B31F-E2570BCF2EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Item name</t>
   </si>
@@ -122,9 +122,6 @@
     <t>gree chilly light</t>
   </si>
   <si>
-    <t>gm</t>
-  </si>
-  <si>
     <t>kokam</t>
   </si>
   <si>
@@ -137,7 +134,25 @@
     <t>inch</t>
   </si>
   <si>
-    <t>this recipe has been changed, please correct it from book and check in.</t>
+    <t>cpunt</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Taste Rating</t>
+  </si>
+  <si>
+    <t>Health Rating</t>
+  </si>
+  <si>
+    <t>How many servings are good for us</t>
+  </si>
+  <si>
+    <t>Moong dal in gram</t>
+  </si>
+  <si>
+    <t>gram</t>
   </si>
 </sst>
 </file>
@@ -147,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +174,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +233,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ED776-8104-432C-B917-1D930E70AF60}" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27" xr:uid="{12D95053-9C3E-4819-B2F6-1CB5C1FDDA15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ED776-8104-432C-B917-1D930E70AF60}" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{12D95053-9C3E-4819-B2F6-1CB5C1FDDA15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BD6E7EDD-66B1-4838-AD7A-A2AA04EF5520}" name="Item name"/>
     <tableColumn id="2" xr3:uid="{80E22383-2B6C-411A-A07C-2DA040A14090}" name="Daily recipe" dataDxfId="0">
@@ -539,23 +586,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,364 +623,419 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
       <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <f t="shared" ref="B3:B17" si="0">(E3/F3)*D3</f>
-        <v>0.875</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="13">
+        <f>(E3/F3)*D3</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="12">
+        <f>(E4/F4)*D4</f>
+        <v>90</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>105</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B20" si="0">(E5/F5)*D5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <f t="shared" si="0"/>
-        <v>8.1666666666666679</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5714285714285712</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
-        <v>7</v>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>0.25</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
-        <v>7</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" s="1">
         <v>0.25</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
-        <v>7</v>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3">
-        <v>7</v>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="F17" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.25</v>
       </c>
-      <c r="F17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="F18" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4" t="s">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
+      <c r="F20" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
